--- a/data/income_statement/2digits/size/77_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/77_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>77-Rental and leasing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>77-Rental and leasing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,638 +841,723 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>278573.55541</v>
+        <v>272070.79545</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>425685.63004</v>
+        <v>450683.9004700001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>545031.85159</v>
+        <v>650978.85236</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>644223.2201500001</v>
+        <v>769624.16661</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>943220.04661</v>
+        <v>978791.1151999999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1461288.95684</v>
+        <v>1516545.54229</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1586654.42816</v>
+        <v>1716696.04198</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1667542.05144</v>
+        <v>1819100.88213</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2179432.02006</v>
+        <v>2269319.68488</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4005362.63287</v>
+        <v>4547389.4009</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3650388.14755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4153112.99933</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5388935.03</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>244558.46629</v>
+        <v>236727.94022</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>393097.56726</v>
+        <v>420836.00645</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>506539.60528</v>
+        <v>601445.38105</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>590641.9631400001</v>
+        <v>700045.1989099999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>849611.87422</v>
+        <v>890557.4494100001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1321439.33995</v>
+        <v>1361005.22946</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1401472.8118</v>
+        <v>1539107.05288</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1507296.86184</v>
+        <v>1657863.51417</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1988914.4717</v>
+        <v>2072816.05571</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3566251.5956</v>
+        <v>4016988.94567</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3266908.49916</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3719772.67365</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4828874.412</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>27661.28486</v>
+        <v>29691.9202</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>19895.17419</v>
+        <v>17727.82916</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>23518.41882</v>
+        <v>35192.65572</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>32355.22085999999</v>
+        <v>48166.29815</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>45312.10158</v>
+        <v>39223.32356</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>66632.6525</v>
+        <v>77354.78803</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>35318.74577</v>
+        <v>42432.70044</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>38119.23623999999</v>
+        <v>51235.84494</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>49888.62234999999</v>
+        <v>81549.26797</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>247103.28296</v>
+        <v>300013.2866699999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>179562.06478</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>198520.16959</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>352355.621</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>6353.80426</v>
+        <v>5650.935030000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>12692.88859</v>
+        <v>12120.06486</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>14973.82749</v>
+        <v>14340.81559</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>21226.03615</v>
+        <v>21412.66955</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>48296.07081</v>
+        <v>49010.34223</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>73216.96438999999</v>
+        <v>78185.5248</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>149862.87059</v>
+        <v>135156.28866</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>122125.95336</v>
+        <v>110001.52302</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>140628.92601</v>
+        <v>114954.3612</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>192007.75431</v>
+        <v>230387.16856</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>203917.58361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>234820.15609</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>207704.997</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>3566.03955</v>
+        <v>3383.74551</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>6573.567170000001</v>
+        <v>4716.3016</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>4534.347489999999</v>
+        <v>5213.84251</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>5587.40179</v>
+        <v>6106.34982</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>6062.56472</v>
+        <v>6121.51992</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>6796.34577</v>
+        <v>7457.44642</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>12005.64174</v>
+        <v>7855.889279999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>10958.11182</v>
+        <v>12716.0179</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>25268.94874</v>
+        <v>24720.85057</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>42162.21196</v>
+        <v>49608.61488</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>48964.44224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>53598.05124</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>89688.637</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2577.00265</v>
+        <v>2380.46714</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5325.948250000001</v>
+        <v>3534.21005</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3922.891059999999</v>
+        <v>4794.5733</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>5352.06562</v>
+        <v>5860.87029</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>5457.320390000001</v>
+        <v>5621.03229</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>6232.72696</v>
+        <v>6932.688720000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>8056.069979999999</v>
+        <v>7434.53133</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>9499.491</v>
+        <v>11574.1199</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>14483.63159</v>
+        <v>14134.77733</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>29213.18806</v>
+        <v>38701.29896000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>35547.84372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>45148.39531</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>51235.316</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>324.16955</v>
+        <v>338.41102</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>479.68313</v>
+        <v>441.99517</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>498.01829</v>
+        <v>315.06839</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>214.69104</v>
+        <v>125.80076</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>258.22843</v>
+        <v>268.69573</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>95.35919</v>
+        <v>155.13429</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3651.367909999999</v>
+        <v>160.40328</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1318.46316</v>
+        <v>1033.09886</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>9523.185800000001</v>
+        <v>9338.182650000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>8056.163090000001</v>
+        <v>9769.600610000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>7204.412069999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>6970.6468</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>28178.178</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>664.86735</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>767.9357899999999</v>
+        <v>740.09638</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>113.43814</v>
+        <v>104.20082</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>20.64513</v>
+        <v>119.67877</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>347.0159</v>
+        <v>231.7919</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>468.25962</v>
+        <v>369.62341</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>298.20385</v>
+        <v>260.95467</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>140.15766</v>
+        <v>108.79914</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1262.13135</v>
+        <v>1247.89059</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>4892.86081</v>
+        <v>1137.71531</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>6212.186449999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1479.00913</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>10275.143</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>275007.51586</v>
+        <v>268687.04994</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>419112.06287</v>
+        <v>445967.59887</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>540497.5041</v>
+        <v>645765.00985</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>638635.81836</v>
+        <v>763517.81679</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>937157.4818900001</v>
+        <v>972669.59528</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1454492.61107</v>
+        <v>1509088.09587</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1574648.78642</v>
+        <v>1708840.1527</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1656583.93962</v>
+        <v>1806384.86423</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2154163.07132</v>
+        <v>2244598.83431</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3963200.42091</v>
+        <v>4497780.78602</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3601423.70531</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4099514.94809</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5299246.393</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>206549.16609</v>
+        <v>207794.64449</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>315564.18194</v>
+        <v>330282.66819</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>420466.70565</v>
+        <v>491483.8477100001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>532134.4500600001</v>
+        <v>624259.7266899999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>750592.2045100001</v>
+        <v>787605.9879600001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1126247.87631</v>
+        <v>1208204.79329</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1250330.55446</v>
+        <v>1384517.78177</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1339039.05405</v>
+        <v>1486669.25111</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1779397.82252</v>
+        <v>1814114.26972</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3022574.18599</v>
+        <v>3436386.88117</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2781205.59496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3250455.71503</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4256593.84</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2637.90084</v>
+        <v>2339.0282</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>6126.87627</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>5335.52891</v>
+        <v>5159.07645</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1846.33924</v>
+        <v>14763.18084</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>30328.39263</v>
+        <v>30809.0506</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>8514.916130000001</v>
+        <v>1746.65455</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>9109.356250000001</v>
+        <v>176.02676</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>39362.97888</v>
+        <v>26816.50317</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>14245.62579</v>
+        <v>7721.67654</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3413.65481</v>
+        <v>15166.52752</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>6300.6266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>62615.74541</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>63667.489</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>44561.73209999999</v>
+        <v>44576.09847</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>68762.72502</v>
+        <v>71943.39081</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>64106.53951</v>
+        <v>79481.89245</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>101436.99347</v>
+        <v>105984.05983</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>101127.76963</v>
+        <v>93574.13335999999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>251535.87143</v>
+        <v>252236.15518</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>323878.13032</v>
+        <v>365164.40239</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>367139.77504</v>
+        <v>423503.94633</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>692959.99713</v>
+        <v>658717.55352</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>760877.8268900001</v>
+        <v>845218.43087</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>574655.8152899999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>611011.4107799999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1313979.015</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>157233.26775</v>
+        <v>158514.79406</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>236297.72762</v>
+        <v>243327.16822</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>331785.38823</v>
+        <v>380936.5239399999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>420360.58014</v>
+        <v>493077.70036</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>590403.4625599999</v>
+        <v>619782.75205</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>824475.44566</v>
+        <v>890593.00551</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>828962.1823000001</v>
+        <v>881482.58111</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>880369.26202</v>
+        <v>955430.06394</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>977758.4053400001</v>
+        <v>1033254.37912</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1942420.19939</v>
+        <v>2202573.07425</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1978492.52616</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2327534.59908</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2563819.849</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>2116.2654</v>
+        <v>2364.72376</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>4376.85303</v>
+        <v>8885.232890000001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>19239.249</v>
+        <v>25906.35487</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>8490.537209999999</v>
+        <v>10434.78566</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>28732.57969</v>
+        <v>43440.05195</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>41721.64309000001</v>
+        <v>63628.97805000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>88380.88559000001</v>
+        <v>137694.77151</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>52167.03811</v>
+        <v>80918.73767</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>94433.79426000001</v>
+        <v>114420.66054</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>315862.5049000001</v>
+        <v>373428.84853</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>221756.62691</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>249293.95976</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>315127.487</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>68458.34977</v>
+        <v>60892.40545</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>103547.88093</v>
+        <v>115684.93068</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>120030.79845</v>
+        <v>154281.16214</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>106501.3683</v>
+        <v>139258.0901</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>186565.27738</v>
+        <v>185063.60732</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>328244.73476</v>
+        <v>300883.30258</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>324318.23196</v>
+        <v>324322.37093</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>317544.88557</v>
+        <v>319715.61312</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>374765.2488</v>
+        <v>430484.56459</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>940626.2349200001</v>
+        <v>1061393.90485</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>820218.11035</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>849059.2330600001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1042652.553</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>52586.28585</v>
+        <v>46786.03209</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>116016.57591</v>
+        <v>103412.97535</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>114688.87549</v>
+        <v>122766.96196</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>89194.42621999998</v>
+        <v>116922.12545</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>195413.46139</v>
+        <v>168458.81013</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>251860.32425</v>
+        <v>217231.28999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>244164.70795</v>
+        <v>252113.57539</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>269725.78729</v>
+        <v>237872.03026</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>258935.35199</v>
+        <v>292066.09011</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>549368.28848</v>
+        <v>562507.61748</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>522017.91401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>462911.1657</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>599157.3199999999</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1586,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>9.419090000000001</v>
+        <v>0</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>0</v>
@@ -1606,221 +1592,251 @@
       <c r="M21" s="48" t="n">
         <v>825.77292</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>2927.221</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>6082.2244</v>
+        <v>5434.81986</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>14824.97491</v>
+        <v>13108.27979</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>24492.22354</v>
+        <v>27720.61383</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>20394.57526</v>
+        <v>17007.84901</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>50070.87919</v>
+        <v>45434.37247</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>61913.6853</v>
+        <v>51087.625</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>64159.02281</v>
+        <v>76664.14803</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>57726.70695</v>
+        <v>61278.2436</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>69974.14170000001</v>
+        <v>65111.81701</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>216059.5972</v>
+        <v>243751.21293</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>187074.16631</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>194991.11743</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>203180.8</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>46504.06145</v>
+        <v>41351.21223</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>101188.95655</v>
+        <v>90302.05111</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>90196.65194999998</v>
+        <v>95046.34813</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>68799.85096</v>
+        <v>99914.27644</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>145333.16311</v>
+        <v>123024.43766</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>189946.63895</v>
+        <v>166143.66499</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>180005.68514</v>
+        <v>175449.42736</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>211999.08034</v>
+        <v>176593.78666</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>188961.21029</v>
+        <v>226954.2731</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>333295.0962</v>
+        <v>318742.80947</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>334117.97478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>267094.27535</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>393049.299</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>15872.06392</v>
+        <v>14106.37336</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-12468.69498</v>
+        <v>12271.95533</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>5341.922959999999</v>
+        <v>31514.20018</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>17306.94208</v>
+        <v>22335.96465</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-8848.184009999999</v>
+        <v>16604.79719</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>76384.41051</v>
+        <v>83652.01259</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>80153.52401000001</v>
+        <v>72208.79553999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>47819.09828</v>
+        <v>81843.58285999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>115829.89681</v>
+        <v>138418.47448</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>391257.94644</v>
+        <v>498886.28737</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>298200.19634</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>386148.06736</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>443495.233</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>25275.67411</v>
+        <v>36467.39068</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>25698.79347</v>
+        <v>26199.73305</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>34147.35532</v>
+        <v>48984.07924</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>38806.15554</v>
+        <v>53817.77835</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>60511.26231000001</v>
+        <v>43107.07339</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>83485.93811</v>
+        <v>89851.20718000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>117502.25048</v>
+        <v>124067.72464</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>111018.93322</v>
+        <v>87381.16359</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>106314.5375</v>
+        <v>122014.55177</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>664351.62257</v>
+        <v>525653.28992</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>379245.85463</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>329205.19547</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>479737.481</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2108.12359</v>
+        <v>2100.74156</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>10.46979</v>
+        <v>10.03423</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>14.2186</v>
+        <v>91.73416</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>88.10628</v>
+        <v>240.64983</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>72.81669000000001</v>
+        <v>58.87555</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>6.619050000000001</v>
+        <v>8.057880000000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2162.75643</v>
+        <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2591.63023</v>
+        <v>148.09664</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3015.12192</v>
+        <v>50.97215</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>45622.31505</v>
+        <v>3490.40582</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>29993.08976</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1642.11802</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>433.083</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>3.74529</v>
+        <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>607.97561</v>
+        <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>653.51501</v>
+        <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>750.07963</v>
+        <v>1.44885</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>1395.94153</v>
@@ -1829,10 +1845,10 @@
         <v>87.67578999999999</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>51.29125</v>
+        <v>6.90163</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>129.34341</v>
+        <v>8.82117</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>1436.30915</v>
@@ -1840,209 +1856,239 @@
       <c r="M27" s="48" t="n">
         <v>64.49508</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>206.021</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2310.61021</v>
+        <v>3589.36815</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2793.51668</v>
+        <v>2757.983400000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4174.1152</v>
+        <v>3449.46082</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3917.30924</v>
+        <v>3511.61285</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>3362.13749</v>
+        <v>1970.86635</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>5362.55846</v>
+        <v>5086.79042</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>5289.25392</v>
+        <v>6251.7284</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7241.26967</v>
+        <v>3615.93378</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>7933.9462</v>
+        <v>7154.13313</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>30638.30924</v>
+        <v>72167.36237999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>21730.84725</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>79823.60101</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>35982.136</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>320.39109</v>
+        <v>311.3018299999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>427.05616</v>
+        <v>409.32966</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1588.7208</v>
+        <v>1608.78337</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>545.51126</v>
+        <v>389.90904</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>3926.7562</v>
+        <v>3940.881440000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>587.9901599999999</v>
+        <v>713.1370899999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>18.50339</v>
+        <v>176.06743</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>161.83156</v>
+        <v>238.63407</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>397.49024</v>
+        <v>454.76942</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1.355</v>
+        <v>0.175</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>437.03988</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>437.69147</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>290.785</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>150.91422</v>
+        <v>167.05591</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>173.05475</v>
+        <v>216.52591</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>322.72698</v>
+        <v>271.35254</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>147.9216</v>
+        <v>227.77779</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>680.04617</v>
+        <v>542.0299100000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>682.8865800000001</v>
+        <v>979.0208699999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1000.53314</v>
+        <v>707.518</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>438.87695</v>
+        <v>385.49094</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2695.5988</v>
+        <v>2322.76235</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>3476.47965</v>
+        <v>1762.07961</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>8652.198689999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>8234.91583</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>16662.075</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>16.65124</v>
+        <v>14.06294</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>37.93380000000001</v>
+        <v>2.8348</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>27.48606</v>
+        <v>23.46556</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>102.58232</v>
+        <v>254.76142</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>37.73829</v>
+        <v>162.71444</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5454.83345</v>
+        <v>846.4156</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>80.93015</v>
+        <v>164.45585</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>535.23551</v>
+        <v>193.89481</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>9509.76865</v>
+        <v>180.06311</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3566.05612</v>
+        <v>3556.67769</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3347.62447</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2754.46866</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1931.667</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>12529.13932</v>
+        <v>28107.98711</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>17205.08682</v>
+        <v>18752.37038</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>17701.06006</v>
+        <v>34661.99351000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>17356.61534</v>
+        <v>43102.89421</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>31580.63386</v>
+        <v>19798.28822</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>38228.29965000001</v>
+        <v>59974.90361</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>71112.5094</v>
+        <v>91590.30654999999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>53635.43826</v>
+        <v>55392.57032</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>39121.68796</v>
+        <v>78103.22378</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>508698.39877</v>
+        <v>369304.36849</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>262766.5029</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>180204.75473</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>349925.662</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>0</v>
@@ -2057,16 +2103,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>75.86210000000001</v>
+        <v>132.11562</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>70.01997999999999</v>
+        <v>113.87239</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>10.885</v>
+        <v>0</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>66.63171</v>
+        <v>5.15211</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>8.134</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,251 +2164,286 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7835.59915</v>
+        <v>2176.87318</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5051.675470000001</v>
+        <v>4050.65467</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>9711.052009999999</v>
+        <v>8877.289279999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>15994.59449</v>
+        <v>6090.173210000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>20101.05398</v>
+        <v>16631.96863</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>31658.59139</v>
+        <v>20682.46882</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>37680.06828</v>
+        <v>24976.10023</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>46352.47479</v>
+        <v>27399.6414</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>43444.94861</v>
+        <v>33734.65455</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>70912.39958999999</v>
+        <v>73935.91177999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>52254.0566</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>56043.15067</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>74297.91800000001</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>19050.46706</v>
+        <v>29916.12827</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>18626.27734</v>
+        <v>17948.16601</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>39657.09955000001</v>
+        <v>87682.37709000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>28719.21332</v>
+        <v>31615.11879</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>69883.98561</v>
+        <v>77715.66794</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>63113.76689</v>
+        <v>71370.36804999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>129379.26278</v>
+        <v>153795.67893</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>106970.48969</v>
+        <v>117397.04376</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>100256.04059</v>
+        <v>174483.88584</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>796149.6682300001</v>
+        <v>723400.44606</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>370292.46968</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>290582.94052</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>585163.577</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>256.71346</v>
+        <v>445.03986</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>441.06337</v>
+        <v>531.9980899999999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1332.75831</v>
+        <v>1104.81674</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1054.19251</v>
+        <v>913.87129</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>786.3938099999999</v>
+        <v>658.46351</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>627.18418</v>
+        <v>892.8354099999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1202.8313</v>
+        <v>1461.81879</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>714.39503</v>
+        <v>767.45068</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>7965.38569</v>
+        <v>7697.05216</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2715.30605</v>
+        <v>2583.06194</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4189.614799999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4123.92152</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3927.982</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2418.03184</v>
+        <v>1432.31418</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1006.1064</v>
+        <v>1095.17023</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>700.58384</v>
+        <v>451.46234</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>4850.430800000001</v>
+        <v>4108.72186</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>5207.91831</v>
+        <v>2372.4747</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2449.67617</v>
+        <v>3130.5287</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4138.21337</v>
+        <v>5310.84842</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5296.28762</v>
+        <v>2284.27234</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>6684.17759</v>
+        <v>7871.022899999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>15678.10546</v>
+        <v>11192.53682</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>42487.46197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>33536.5807</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>13070.821</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>48.32305</v>
+        <v>0.0068</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>0</v>
+        <v>417.02797</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>0.08603</v>
+        <v>2040.38732</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>131.19171</v>
+        <v>0.09861</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>9.24939</v>
+        <v>105.93171</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>350.06388</v>
+        <v>359.1393</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>12.62587</v>
+        <v>36.74930000000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>927.58316</v>
+        <v>102.448</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>39.34361</v>
+        <v>105.91636</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>4655.39268</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1262.3061</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>698.2040999999999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>12928.07004</v>
+        <v>27864.27688</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>15118.46101</v>
+        <v>15043.90615</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>35903.10142</v>
+        <v>83199.12347999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>11961.63885</v>
+        <v>23544.63324</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>49512.98421</v>
+        <v>64801.30237999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>43102.73568</v>
+        <v>56823.81234</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>107105.74716</v>
+        <v>135432.24901</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>89144.80461000001</v>
+        <v>102030.43431</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>67235.57987999999</v>
+        <v>134605.25962</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>642181.72779</v>
+        <v>562595.65751</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>302053.64916</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>232082.63449</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>553263.799</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>18.93568</v>
+        <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0</v>
@@ -2366,19 +2452,19 @@
         <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>78.68724</v>
+        <v>75.86221</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>232.08084</v>
+        <v>275.93325</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>70.85626000000001</v>
+        <v>65.9423</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>102.14222</v>
+        <v>75.70105000000001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>118.21861</v>
+        <v>29.04981</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1812.869</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,362 +2516,412 @@
       <c r="M42" s="48" t="n">
         <v>16.37064</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>3399.32867</v>
+        <v>174.49055</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2041.71088</v>
+        <v>860.06357</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1720.56995</v>
+        <v>886.5872099999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>10721.75945</v>
+        <v>3047.79379</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>14288.75265</v>
+        <v>9701.63343</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>16230.44399</v>
+        <v>9766.536900000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>16848.98882</v>
+        <v>11488.07111</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>10785.27705</v>
+        <v>12136.73738</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>18213.33521</v>
+        <v>24175.58499</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>130919.13625</v>
+        <v>142373.79711</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>20283.06701</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>20125.22907</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>13088.1</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>22664.24525</v>
+        <v>20228.97106</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>16862.84141</v>
+        <v>19718.55113</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>23467.42504</v>
+        <v>47328.19245999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>37324.33228</v>
+        <v>50895.18764</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>64507.24567</v>
+        <v>52722.02864</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>80932.04295999999</v>
+        <v>76252.12796000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>86839.74906</v>
+        <v>114031.31241</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>103408.86735</v>
+        <v>108982.7405</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>136916.06121</v>
+        <v>147300.9921</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>318957.21259</v>
+        <v>436056.3809700001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>323763.19053</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>397589.9950999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>357734.404</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>20569.72389</v>
+        <v>16877.96688</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>15443.12822</v>
+        <v>18256.54706</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>19886.36727</v>
+        <v>29088.2825</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>34758.75465</v>
+        <v>38738.91513</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>54042.71549</v>
+        <v>49757.21607</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>72840.30799</v>
+        <v>65542.91901000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>78616.86429000001</v>
+        <v>92521.95071999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>98281.65753</v>
+        <v>102930.21973</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>125788.75882</v>
+        <v>140817.21215</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>308555.09006</v>
+        <v>425749.1171900001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>313244.13761</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>383803.94407</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>338814.407</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2094.52136</v>
+        <v>3351.00418</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1419.71319</v>
+        <v>1462.00407</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3581.057769999999</v>
+        <v>18239.90996</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>2565.57763</v>
+        <v>12156.27251</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>10464.53018</v>
+        <v>2964.81257</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>8091.73497</v>
+        <v>10709.20895</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>8222.884769999999</v>
+        <v>21509.36169</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5127.20982</v>
+        <v>6052.52077</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>11127.30239</v>
+        <v>6483.77995</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>10402.12253</v>
+        <v>10307.26378</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>10519.05292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>13786.05103</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>18919.997</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-566.97428</v>
+        <v>428.66471</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-22259.02026</v>
+        <v>804.9712400000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-23635.24631</v>
+        <v>-54512.29013</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-9930.447980000003</v>
+        <v>-6356.56343</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-82728.15298</v>
+        <v>-70725.826</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>15824.53877</v>
+        <v>25880.72376</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-18563.23735</v>
+        <v>-71550.47116</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-51541.32554000001</v>
+        <v>-57155.03781</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-15027.66749</v>
+        <v>-61351.85169</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-59497.31181</v>
+        <v>-134917.24974</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-16609.60924000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>27180.32721</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-19665.267</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>13948.46975</v>
+        <v>13235.07604</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>16938.65385</v>
+        <v>14479.54593</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>20440.8143</v>
+        <v>19753.17271</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>28875.74562</v>
+        <v>31582.93403</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>53832.31798000001</v>
+        <v>32169.70467</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>48555.04728</v>
+        <v>79549.83357999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>65893.46203</v>
+        <v>118756.65361</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>88076.15437</v>
+        <v>97119.24353000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>103574.44449</v>
+        <v>100523.15957</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>152699.60362</v>
+        <v>173249.44848</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>206393.03188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>178586.70496</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>278710.823</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>346.93525</v>
+        <v>55.11619</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>344.0755</v>
+        <v>8.585840000000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>5.17096</v>
+        <v>19.69253</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2.34851</v>
+        <v>2.19481</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>80.08847999999999</v>
+        <v>19.03643</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>301.97509</v>
+        <v>246.77025</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>45.25474</v>
+        <v>350.85063</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>57.03214999999999</v>
+        <v>16718.15166</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>766.15779</v>
+        <v>1000.8548</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>109.15477</v>
+        <v>132.55405</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5797.14664</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5859.22871</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1488.521</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>13601.5345</v>
+        <v>13179.95985</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>16594.57835</v>
+        <v>14470.96009</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>20435.64334</v>
+        <v>19733.48018</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>28873.39711</v>
+        <v>31580.73922</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>53752.22950000001</v>
+        <v>32150.66824</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>48253.07219000001</v>
+        <v>79303.06333</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>65848.20729000001</v>
+        <v>118405.80298</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>88019.12222</v>
+        <v>80401.09187</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>102808.2867</v>
+        <v>99522.30477</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>152590.44885</v>
+        <v>173116.89443</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>200595.88524</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>172727.47625</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>277222.302</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6156.798289999999</v>
+        <v>5412.50321</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>6740.509309999999</v>
+        <v>5677.261689999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>20002.86572</v>
+        <v>25640.81284</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>11788.13907</v>
+        <v>23969.75199</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>14196.71921</v>
+        <v>12585.43136</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>31782.31829</v>
+        <v>31928.68811</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>30809.12476</v>
+        <v>27275.32669</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>57775.82545</v>
+        <v>41384.72625</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>52278.23506</v>
+        <v>41313.05013</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>42175.12188999999</v>
+        <v>44534.91361</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>90957.27003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>66407.25459</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>76651.541</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>661.62378</v>
@@ -2792,22 +2933,22 @@
         <v>0</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1815.72682</v>
+        <v>0</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>128.52</v>
+        <v>0</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>473.65096</v>
+        <v>7485.99896</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>0</v>
+        <v>7.145</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>10.8355</v>
+        <v>6270.34218</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>0</v>
+        <v>149.936</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>1790.82797</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>203.323</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>8736.172</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>229.03421</v>
+        <v>109.01506</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>435.18285</v>
+        <v>106.06769</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>830.95151</v>
+        <v>781.7501299999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1158.95757</v>
+        <v>1226.74137</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>874.16278</v>
+        <v>688.25563</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>552.0378499999999</v>
+        <v>1081.91188</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>254.14677</v>
+        <v>528.71604</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2245.25354</v>
+        <v>3116.30364</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1961.48091</v>
+        <v>756.37658</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1613.86855</v>
+        <v>1317.24206</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1205.28207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3129.29387</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1672.604</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>5266.1403</v>
+        <v>4641.86437</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>6305.32646</v>
+        <v>5571.194</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>19171.91421</v>
+        <v>24859.06271</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>8813.454679999999</v>
+        <v>22743.01062</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>13194.03643</v>
+        <v>11897.17573</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>30756.62948</v>
+        <v>23360.77727</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>30554.97799</v>
+        <v>26739.46565</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>55519.73641</v>
+        <v>31998.08043</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>50316.75414999999</v>
+        <v>40406.73755000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>38770.42537</v>
+        <v>41426.84358</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>89548.66495999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>63074.63772</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>66242.765</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>7224.69718</v>
+        <v>8251.23754</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-12060.87572</v>
+        <v>9607.25548</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-23197.29773</v>
+        <v>-60399.93026</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>7157.158570000001</v>
+        <v>1256.61861</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-43092.55421</v>
+        <v>-51141.55269</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>32597.26776</v>
+        <v>73501.86922999998</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>16521.09992</v>
+        <v>19930.85576000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-21240.99662</v>
+        <v>-1420.520529999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>36268.54194</v>
+        <v>-2141.742249999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>51027.16991999999</v>
+        <v>-6202.714870000004</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>98826.15261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>139359.77758</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>182394.015</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2990.2687</v>
+        <v>2948.59487</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2724.55438</v>
+        <v>2876.28768</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>5407.818300000001</v>
+        <v>5334.60803</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4360.61042</v>
+        <v>5295.58645</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>5909.15852</v>
+        <v>5824.40155</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>14001.21372</v>
+        <v>13121.79416</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>11833.17269</v>
+        <v>10270.24558</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>13106.47715</v>
+        <v>10647.88556</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>12210.1871</v>
+        <v>9789.619379999998</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>36186.90684</v>
+        <v>41651.51586</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>25642.28998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>43720.80334000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>55500.129</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4234.42848</v>
+        <v>5302.64267</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-14785.4301</v>
+        <v>6730.9678</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-28605.11603</v>
+        <v>-65734.53829</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2796.54815</v>
+        <v>-4038.96784</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-49001.71273</v>
+        <v>-56965.95424</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>18596.05404</v>
+        <v>60380.07507</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>4687.92723</v>
+        <v>9660.61018</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-34347.47377</v>
+        <v>-12068.40609</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>24058.35484</v>
+        <v>-11931.36163</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>14840.26308</v>
+        <v>-47854.23073</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>73183.86262999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>95638.97424</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>126893.886</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>92</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>